--- a/experiments/collated_data.huge_run-temper05.xlsx
+++ b/experiments/collated_data.huge_run-temper05.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewblinn/Dropbox/projects/hazel3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewblinn/Dropbox/projects/hazel3/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA566CD-C4FE-9346-B93C-531EA4079F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0CBF9A-A031-D141-8BE0-1DD7435F11DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="collated_data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">collated_data!$A$1:$R$501</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId3"/>
+    <pivotCache cacheId="51" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1664,7 +1680,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2253,7 +2269,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2266,31 +2282,46 @@
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2302,26 +2333,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2381,7 +2392,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="andrew blinn" refreshedDate="45384.862400347221" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="501">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="andrew blinn" refreshedDate="45384.862400347221" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="501" xr:uid="{00000000-000A-0000-FFFF-FFFF32000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R1048576" sheet="collated_data"/>
   </cacheSource>
@@ -12498,7 +12509,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable11" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A3:W19" firstHeaderRow="1" firstDataRow="3" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
@@ -13009,11 +13020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13021,8 +13032,8 @@
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="13" width="3.83203125" customWidth="1"/>
-    <col min="14" max="27" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="3.83203125" customWidth="1"/>
+    <col min="15" max="27" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -13797,20 +13808,20 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="18" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -13822,34 +13833,34 @@
       <c r="C23" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="3" t="s">
         <v>538</v>
       </c>
     </row>
@@ -13863,309 +13874,343 @@
       <c r="C24" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D24" s="22">
-        <v>0</v>
-      </c>
-      <c r="E24" s="23">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
-        <v>0</v>
-      </c>
-      <c r="G24" s="23">
-        <v>0</v>
-      </c>
-      <c r="H24" s="23">
-        <v>0</v>
-      </c>
-      <c r="I24" s="26">
-        <v>0</v>
-      </c>
-      <c r="J24" s="27">
-        <v>0</v>
-      </c>
-      <c r="K24" s="27">
-        <v>0</v>
-      </c>
-      <c r="L24" s="27">
-        <v>0</v>
-      </c>
-      <c r="M24" s="27">
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <f>SUM(D24:H24)/5</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="21" t="s">
         <v>539</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="10">
         <v>41.25</v>
       </c>
-      <c r="E25" s="23">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="2">
         <v>6.67</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="2">
         <v>16.669999999999998</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="12">
         <v>44.507333977421943</v>
       </c>
-      <c r="J25" s="27">
-        <v>0</v>
-      </c>
-      <c r="K25" s="27">
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
         <v>4.3744840965662588</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="13">
         <v>21.092391993323091</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="13">
         <v>21.877895998777703</v>
       </c>
+      <c r="N25" s="2">
+        <f t="shared" ref="N25:N32" si="0">SUM(D25:H25)/5</f>
+        <v>13.747999999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="10">
         <v>62.5</v>
       </c>
-      <c r="E26" s="23">
-        <v>0</v>
-      </c>
-      <c r="F26" s="23">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
         <v>50</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="2">
         <v>44.019999999999996</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="2">
         <v>52.5</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="12">
         <v>48.591265790377506</v>
       </c>
-      <c r="J26" s="27">
-        <v>0</v>
-      </c>
-      <c r="K26" s="27">
-        <v>0</v>
-      </c>
-      <c r="L26" s="27">
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
         <v>38.660539744464685</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="13">
         <v>17.586674248166155</v>
       </c>
+      <c r="N26" s="2">
+        <f t="shared" si="0"/>
+        <v>41.803999999999995</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="10">
         <v>53.75</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="2">
         <v>88</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="2">
         <v>50.820000000000007</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="2">
         <v>66.03</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="2">
         <v>43.320000000000007</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="12">
         <v>48.964981818075294</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="13">
         <v>31.552425509864619</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="13">
         <v>45.90644592840723</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="13">
         <v>18.185467335821237</v>
       </c>
-      <c r="M27" s="27">
+      <c r="M27" s="13">
         <v>30.371982703362196</v>
       </c>
+      <c r="N27" s="2">
+        <f t="shared" si="0"/>
+        <v>60.384</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="10">
         <v>46.25</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="2">
         <v>88</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="2">
         <v>54.15</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="2">
         <v>76.700000000000017</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="2">
         <v>83.33</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="12">
         <v>46.416741472112072</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="13">
         <v>31.552425509864619</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="13">
         <v>48.330143572906728</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="13">
         <v>10.54092553389456</v>
       </c>
-      <c r="M28" s="27">
+      <c r="M28" s="13">
         <v>15.220603725798075</v>
       </c>
+      <c r="N28" s="2">
+        <f t="shared" si="0"/>
+        <v>69.686000000000007</v>
+      </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
+      <c r="D29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
+      <c r="D30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D31" s="22">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23">
-        <v>0</v>
-      </c>
-      <c r="F31" s="23">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23">
-        <v>0</v>
-      </c>
-      <c r="H31" s="23">
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
         <v>33.35</v>
       </c>
-      <c r="I31" s="28">
-        <v>0</v>
-      </c>
-      <c r="J31" s="29">
-        <v>0</v>
-      </c>
-      <c r="K31" s="29">
-        <v>0</v>
-      </c>
-      <c r="L31" s="29">
-        <v>0</v>
-      </c>
-      <c r="M31" s="29">
+      <c r="I31" s="14">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
         <v>31.198299455080701</v>
       </c>
+      <c r="N31" s="2">
+        <f t="shared" si="0"/>
+        <v>6.67</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="10" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="D32" s="22">
-        <v>0</v>
-      </c>
-      <c r="E32" s="23">
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
         <v>3</v>
       </c>
-      <c r="F32" s="23">
-        <v>0</v>
-      </c>
-      <c r="G32" s="23">
-        <v>2</v>
-      </c>
-      <c r="H32" s="23">
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
         <v>57.5</v>
       </c>
-      <c r="I32" s="28">
-        <v>0</v>
-      </c>
-      <c r="J32" s="29">
+      <c r="I32" s="14">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
         <v>9.4868329805051381</v>
       </c>
-      <c r="K32" s="29">
-        <v>0</v>
-      </c>
-      <c r="L32" s="29">
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
         <v>6.324555320336759</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="15">
         <v>30.291289543732237</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="D22:H22"/>
     <mergeCell ref="I22:M22"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="D22:H22"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:H28 D31:H32">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24:N32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14182,14 +14227,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A478" sqref="A1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -14247,7 +14296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -14303,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -14359,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -14415,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -14471,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -14527,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -14583,7 +14632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -14639,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -14695,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -14751,7 +14800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -14807,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -14863,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -14919,7 +14968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -14975,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -15031,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -15087,7 +15136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -15143,7 +15192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -15199,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -15255,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -15311,7 +15360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -15367,7 +15416,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -15423,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -15479,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -15535,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -15591,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -15647,7 +15696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -15703,7 +15752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -15759,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -15815,7 +15864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -15871,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -15927,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -15983,7 +16032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -16039,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -16095,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -16151,7 +16200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -16207,7 +16256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -16263,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -16319,7 +16368,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -16375,7 +16424,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -16431,7 +16480,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -16487,7 +16536,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -16543,7 +16592,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -16599,7 +16648,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -16655,7 +16704,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -16711,7 +16760,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -16767,7 +16816,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -16823,7 +16872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -16879,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -16935,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -16991,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -17047,7 +17096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -17103,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -17159,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -17215,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -17271,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -17329,16 +17378,16 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -17350,19 +17399,19 @@
         <v>0.5</v>
       </c>
       <c r="H57">
-        <v>1712104008.4000001</v>
+        <v>1712101853.5999999</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J57">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="M57">
         <v>100</v>
@@ -17371,7 +17420,7 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>2012</v>
+        <v>1884</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
@@ -17385,16 +17434,16 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -17406,19 +17455,19 @@
         <v>0.5</v>
       </c>
       <c r="H58">
-        <v>1712103993</v>
+        <v>1712101831</v>
       </c>
       <c r="I58">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J58">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>14.6</v>
+        <v>11.6</v>
       </c>
       <c r="M58">
         <v>100</v>
@@ -17427,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>1984</v>
+        <v>1902</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
@@ -17439,7 +17488,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -17497,16 +17546,16 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -17518,19 +17567,19 @@
         <v>0.5</v>
       </c>
       <c r="H60">
-        <v>1712103967.2</v>
+        <v>1712101755.9000001</v>
       </c>
       <c r="I60">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J60">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>10.3</v>
+        <v>17.3</v>
       </c>
       <c r="M60">
         <v>100</v>
@@ -17539,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>1986</v>
+        <v>1879</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
@@ -17551,7 +17600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -17607,7 +17656,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -17665,19 +17714,19 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -17686,28 +17735,28 @@
         <v>0.5</v>
       </c>
       <c r="H63">
-        <v>1712103934</v>
+        <v>1712101718.0999999</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>8.4</v>
+        <v>37</v>
       </c>
       <c r="M63">
         <v>100</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>1969</v>
+        <v>4129</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
@@ -17715,11 +17764,11 @@
       <c r="Q63">
         <v>0</v>
       </c>
-      <c r="R63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R63">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -17777,16 +17826,16 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -17798,28 +17847,28 @@
         <v>0.5</v>
       </c>
       <c r="H65">
-        <v>1712103907.3</v>
+        <v>1712101661.8</v>
       </c>
       <c r="I65">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J65">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>16.3</v>
+        <v>11.3</v>
       </c>
       <c r="M65">
         <v>100</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>4290</v>
+        <v>1882</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
@@ -17827,11 +17876,11 @@
       <c r="Q65">
         <v>0</v>
       </c>
-      <c r="R65">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -17889,16 +17938,16 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -17910,28 +17959,28 @@
         <v>0.5</v>
       </c>
       <c r="H67">
-        <v>1712103875.5</v>
+        <v>1712101583.5</v>
       </c>
       <c r="I67">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J67">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>14.9</v>
+        <v>17.3</v>
       </c>
       <c r="M67">
         <v>100</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>4347</v>
+        <v>1863</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -17939,22 +17988,22 @@
       <c r="Q67">
         <v>0</v>
       </c>
-      <c r="R67">
-        <v>-100</v>
+      <c r="R67" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -17966,19 +18015,19 @@
         <v>0.5</v>
       </c>
       <c r="H68">
-        <v>1712103863.5999999</v>
+        <v>1712101569.0999999</v>
       </c>
       <c r="I68">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J68">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
       <c r="L68">
-        <v>11.2</v>
+        <v>13.7</v>
       </c>
       <c r="M68">
         <v>100</v>
@@ -17987,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>1990</v>
+        <v>1858</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
@@ -18001,16 +18050,16 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -18022,19 +18071,19 @@
         <v>0.5</v>
       </c>
       <c r="H69">
-        <v>1712103849.7</v>
+        <v>1712101548.8</v>
       </c>
       <c r="I69">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J69">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <v>13.1</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="M69">
         <v>100</v>
@@ -18043,7 +18092,7 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>4298</v>
+        <v>4041</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
@@ -18055,7 +18104,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -18111,7 +18160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -18167,7 +18216,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -18223,7 +18272,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -18279,7 +18328,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -18335,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -18391,7 +18440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -18447,7 +18496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -18503,7 +18552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -18559,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -18615,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -18671,7 +18720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -18727,7 +18776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -18783,7 +18832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -18839,7 +18888,7 @@
         <v>-11.1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -18895,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -18951,7 +19000,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -19007,7 +19056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -19063,7 +19112,7 @@
         <v>-11.1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -19119,7 +19168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -19175,7 +19224,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -19231,7 +19280,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -19287,7 +19336,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -19343,7 +19392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -19399,7 +19448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -19455,7 +19504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -19511,7 +19560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -19567,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -19623,7 +19672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -19679,7 +19728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -19735,7 +19784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -19791,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -19847,7 +19896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -19903,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -19959,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -20015,7 +20064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -20071,7 +20120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -20127,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -20183,7 +20232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -20239,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -20295,7 +20344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -20351,7 +20400,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -20407,7 +20456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>131</v>
       </c>
@@ -20463,7 +20512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>132</v>
       </c>
@@ -20519,7 +20568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -20575,7 +20624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -20631,7 +20680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -20687,7 +20736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -20743,7 +20792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -20799,7 +20848,7 @@
         <v>-87.5</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -20855,7 +20904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -20911,7 +20960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -20967,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -21023,7 +21072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -21079,7 +21128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -21135,7 +21184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -21191,7 +21240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -21247,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -21303,7 +21352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -21359,7 +21408,7 @@
         <v>-28.6</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -21415,7 +21464,7 @@
         <v>-65.2</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -21471,7 +21520,7 @@
         <v>-78.900000000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -21527,7 +21576,7 @@
         <v>-44.4</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -21583,7 +21632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -21639,7 +21688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -21695,7 +21744,7 @@
         <v>-55.6</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -21751,7 +21800,7 @@
         <v>-78.900000000000006</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -21807,7 +21856,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>156</v>
       </c>
@@ -21863,7 +21912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>157</v>
       </c>
@@ -21919,7 +21968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>158</v>
       </c>
@@ -21975,7 +22024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>159</v>
       </c>
@@ -22031,7 +22080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>160</v>
       </c>
@@ -22087,7 +22136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>161</v>
       </c>
@@ -22143,7 +22192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>162</v>
       </c>
@@ -22199,7 +22248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>163</v>
       </c>
@@ -22255,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>164</v>
       </c>
@@ -22313,19 +22362,19 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="B146" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C146" t="b">
         <v>1</v>
       </c>
       <c r="D146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
@@ -22334,28 +22383,28 @@
         <v>0.5</v>
       </c>
       <c r="H146">
-        <v>1712102630.7</v>
+        <v>1712101519.3</v>
       </c>
       <c r="I146">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J146">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K146">
         <v>0</v>
       </c>
       <c r="L146">
-        <v>9.4</v>
+        <v>28.8</v>
       </c>
       <c r="M146">
         <v>100</v>
       </c>
       <c r="N146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O146">
-        <v>1945</v>
+        <v>3996</v>
       </c>
       <c r="P146" t="b">
         <v>1</v>
@@ -22363,16 +22412,16 @@
       <c r="Q146">
         <v>0</v>
       </c>
-      <c r="R146" t="s">
-        <v>75</v>
+      <c r="R146">
+        <v>-100</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B147" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C147" t="b">
         <v>1</v>
@@ -22390,19 +22439,19 @@
         <v>0.5</v>
       </c>
       <c r="H147">
-        <v>1712102622.7</v>
+        <v>1712101120.5</v>
       </c>
       <c r="I147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K147">
         <v>0</v>
       </c>
       <c r="L147">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="M147">
         <v>100</v>
@@ -22411,7 +22460,7 @@
         <v>0</v>
       </c>
       <c r="O147">
-        <v>1938</v>
+        <v>1982</v>
       </c>
       <c r="P147" t="b">
         <v>1</v>
@@ -22423,7 +22472,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -22481,10 +22530,10 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="B149" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C149" t="b">
         <v>1</v>
@@ -22502,19 +22551,19 @@
         <v>0.5</v>
       </c>
       <c r="H149">
-        <v>1712102600.8</v>
+        <v>1712101090.3</v>
       </c>
       <c r="I149">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J149">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K149">
         <v>0</v>
       </c>
       <c r="L149">
-        <v>10.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="M149">
         <v>100</v>
@@ -22523,7 +22572,7 @@
         <v>0</v>
       </c>
       <c r="O149">
-        <v>1942</v>
+        <v>1962</v>
       </c>
       <c r="P149" t="b">
         <v>1</v>
@@ -22535,7 +22584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>169</v>
       </c>
@@ -22593,10 +22642,10 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="B151" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C151" t="b">
         <v>1</v>
@@ -22614,19 +22663,19 @@
         <v>0.5</v>
       </c>
       <c r="H151">
-        <v>1712102577.5</v>
+        <v>1712101082.7</v>
       </c>
       <c r="I151">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J151">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K151">
         <v>0</v>
       </c>
       <c r="L151">
-        <v>10.1</v>
+        <v>6.9</v>
       </c>
       <c r="M151">
         <v>100</v>
@@ -22635,7 +22684,7 @@
         <v>0</v>
       </c>
       <c r="O151">
-        <v>1962</v>
+        <v>1977</v>
       </c>
       <c r="P151" t="b">
         <v>1</v>
@@ -22649,10 +22698,10 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="B152" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C152" t="b">
         <v>1</v>
@@ -22670,19 +22719,19 @@
         <v>0.5</v>
       </c>
       <c r="H152">
-        <v>1712102566.9000001</v>
+        <v>1712101074.4000001</v>
       </c>
       <c r="I152">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J152">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K152">
         <v>0</v>
       </c>
       <c r="L152">
-        <v>9.8000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="M152">
         <v>100</v>
@@ -22691,7 +22740,7 @@
         <v>0</v>
       </c>
       <c r="O152">
-        <v>1947</v>
+        <v>1986</v>
       </c>
       <c r="P152" t="b">
         <v>1</v>
@@ -22705,10 +22754,10 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="B153" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C153" t="b">
         <v>1</v>
@@ -22726,19 +22775,19 @@
         <v>0.5</v>
       </c>
       <c r="H153">
-        <v>1712102552.5999999</v>
+        <v>1712101055.8</v>
       </c>
       <c r="I153">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J153">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K153">
         <v>0</v>
       </c>
       <c r="L153">
-        <v>13.6</v>
+        <v>17.8</v>
       </c>
       <c r="M153">
         <v>100</v>
@@ -22747,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="O153">
-        <v>1945</v>
+        <v>2033</v>
       </c>
       <c r="P153" t="b">
         <v>1</v>
@@ -22761,10 +22810,10 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="B154" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C154" t="b">
         <v>1</v>
@@ -22773,7 +22822,7 @@
         <v>1</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
@@ -22782,19 +22831,19 @@
         <v>0.5</v>
       </c>
       <c r="H154">
-        <v>1712102542</v>
+        <v>1712100947.8</v>
       </c>
       <c r="I154">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J154">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K154">
         <v>0</v>
       </c>
       <c r="L154">
-        <v>9.8000000000000007</v>
+        <v>6.1</v>
       </c>
       <c r="M154">
         <v>100</v>
@@ -22803,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="O154">
-        <v>1957</v>
+        <v>1962</v>
       </c>
       <c r="P154" t="b">
         <v>1</v>
@@ -22815,7 +22864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>174</v>
       </c>
@@ -22873,10 +22922,10 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c r="B156" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C156" t="b">
         <v>1</v>
@@ -22894,19 +22943,19 @@
         <v>0.5</v>
       </c>
       <c r="H156">
-        <v>1712102513</v>
+        <v>1712100898.5</v>
       </c>
       <c r="I156">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J156">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K156">
         <v>0</v>
       </c>
       <c r="L156">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="M156">
         <v>100</v>
@@ -22915,7 +22964,7 @@
         <v>0</v>
       </c>
       <c r="O156">
-        <v>1939</v>
+        <v>1985</v>
       </c>
       <c r="P156" t="b">
         <v>1</v>
@@ -22929,10 +22978,10 @@
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C157" t="b">
         <v>1</v>
@@ -22950,19 +22999,19 @@
         <v>0.5</v>
       </c>
       <c r="H157">
-        <v>1712102505.7</v>
+        <v>1712100887.5999999</v>
       </c>
       <c r="I157">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J157">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K157">
         <v>0</v>
       </c>
       <c r="L157">
-        <v>6.4</v>
+        <v>10.1</v>
       </c>
       <c r="M157">
         <v>100</v>
@@ -22971,7 +23020,7 @@
         <v>0</v>
       </c>
       <c r="O157">
-        <v>1938</v>
+        <v>2000</v>
       </c>
       <c r="P157" t="b">
         <v>1</v>
@@ -22985,10 +23034,10 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>177</v>
+        <v>501</v>
       </c>
       <c r="B158" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C158" t="b">
         <v>1</v>
@@ -23006,19 +23055,19 @@
         <v>0.5</v>
       </c>
       <c r="H158">
-        <v>1712102495.5999999</v>
+        <v>1712096413.2</v>
       </c>
       <c r="I158">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J158">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K158">
         <v>0</v>
       </c>
       <c r="L158">
-        <v>9.1999999999999993</v>
+        <v>13.7</v>
       </c>
       <c r="M158">
         <v>100</v>
@@ -23027,7 +23076,7 @@
         <v>0</v>
       </c>
       <c r="O158">
-        <v>1947</v>
+        <v>1983</v>
       </c>
       <c r="P158" t="b">
         <v>1</v>
@@ -23041,7 +23090,7 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B159" t="s">
         <v>111</v>
@@ -23053,7 +23102,7 @@
         <v>1</v>
       </c>
       <c r="E159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
@@ -23062,7 +23111,7 @@
         <v>0.5</v>
       </c>
       <c r="H159">
-        <v>1712102470.4000001</v>
+        <v>1712102630.7</v>
       </c>
       <c r="I159">
         <v>10</v>
@@ -23074,16 +23123,16 @@
         <v>0</v>
       </c>
       <c r="L159">
-        <v>24.3</v>
+        <v>9.4</v>
       </c>
       <c r="M159">
         <v>100</v>
       </c>
       <c r="N159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O159">
-        <v>4727</v>
+        <v>1945</v>
       </c>
       <c r="P159" t="b">
         <v>1</v>
@@ -23091,13 +23140,13 @@
       <c r="Q159">
         <v>0</v>
       </c>
-      <c r="R159">
-        <v>-100</v>
+      <c r="R159" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B160" t="s">
         <v>111</v>
@@ -23109,7 +23158,7 @@
         <v>1</v>
       </c>
       <c r="E160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F160" t="b">
         <v>0</v>
@@ -23118,7 +23167,7 @@
         <v>0.5</v>
       </c>
       <c r="H160">
-        <v>1712102457.5999999</v>
+        <v>1712102622.7</v>
       </c>
       <c r="I160">
         <v>10</v>
@@ -23130,7 +23179,7 @@
         <v>0</v>
       </c>
       <c r="L160">
-        <v>12</v>
+        <v>7.3</v>
       </c>
       <c r="M160">
         <v>100</v>
@@ -23139,7 +23188,7 @@
         <v>0</v>
       </c>
       <c r="O160">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="P160" t="b">
         <v>1</v>
@@ -23153,7 +23202,7 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B161" t="s">
         <v>111</v>
@@ -23165,7 +23214,7 @@
         <v>1</v>
       </c>
       <c r="E161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -23174,7 +23223,7 @@
         <v>0.5</v>
       </c>
       <c r="H161">
-        <v>1712102446.0999999</v>
+        <v>1712102600.8</v>
       </c>
       <c r="I161">
         <v>10</v>
@@ -23186,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="L161">
-        <v>10.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="M161">
         <v>100</v>
@@ -23195,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="O161">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="P161" t="b">
         <v>1</v>
@@ -23209,7 +23258,7 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B162" t="s">
         <v>111</v>
@@ -23221,7 +23270,7 @@
         <v>1</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
@@ -23230,7 +23279,7 @@
         <v>0.5</v>
       </c>
       <c r="H162">
-        <v>1712102434</v>
+        <v>1712102577.5</v>
       </c>
       <c r="I162">
         <v>10</v>
@@ -23242,7 +23291,7 @@
         <v>0</v>
       </c>
       <c r="L162">
-        <v>11.4</v>
+        <v>10.1</v>
       </c>
       <c r="M162">
         <v>100</v>
@@ -23251,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="O162">
-        <v>1941</v>
+        <v>1962</v>
       </c>
       <c r="P162" t="b">
         <v>1</v>
@@ -23265,7 +23314,7 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B163" t="s">
         <v>111</v>
@@ -23277,7 +23326,7 @@
         <v>1</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -23286,7 +23335,7 @@
         <v>0.5</v>
       </c>
       <c r="H163">
-        <v>1712102425.4000001</v>
+        <v>1712102566.9000001</v>
       </c>
       <c r="I163">
         <v>10</v>
@@ -23298,7 +23347,7 @@
         <v>0</v>
       </c>
       <c r="L163">
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M163">
         <v>100</v>
@@ -23307,7 +23356,7 @@
         <v>0</v>
       </c>
       <c r="O163">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="P163" t="b">
         <v>1</v>
@@ -23319,7 +23368,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>183</v>
       </c>
@@ -23375,7 +23424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>184</v>
       </c>
@@ -23431,7 +23480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>185</v>
       </c>
@@ -23487,7 +23536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>186</v>
       </c>
@@ -23543,7 +23592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>187</v>
       </c>
@@ -23599,7 +23648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>188</v>
       </c>
@@ -23655,7 +23704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>189</v>
       </c>
@@ -23711,7 +23760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>190</v>
       </c>
@@ -23767,7 +23816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>191</v>
       </c>
@@ -23823,7 +23872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>192</v>
       </c>
@@ -23879,7 +23928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>193</v>
       </c>
@@ -23935,7 +23984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>194</v>
       </c>
@@ -23991,7 +24040,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>195</v>
       </c>
@@ -24047,7 +24096,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>196</v>
       </c>
@@ -24103,7 +24152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>197</v>
       </c>
@@ -24159,7 +24208,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>198</v>
       </c>
@@ -24215,7 +24264,7 @@
         <v>-71.400000000000006</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>199</v>
       </c>
@@ -24271,7 +24320,7 @@
         <v>-88.9</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>200</v>
       </c>
@@ -24327,7 +24376,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>201</v>
       </c>
@@ -24383,7 +24432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>203</v>
       </c>
@@ -24439,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>204</v>
       </c>
@@ -24495,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>205</v>
       </c>
@@ -24551,7 +24600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>206</v>
       </c>
@@ -24607,7 +24656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>207</v>
       </c>
@@ -24663,7 +24712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>208</v>
       </c>
@@ -24719,7 +24768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>209</v>
       </c>
@@ -24775,7 +24824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>210</v>
       </c>
@@ -24831,7 +24880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>211</v>
       </c>
@@ -24887,7 +24936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>212</v>
       </c>
@@ -24943,7 +24992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>213</v>
       </c>
@@ -24999,7 +25048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>214</v>
       </c>
@@ -25055,7 +25104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -25111,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -25167,7 +25216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -25223,7 +25272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -25279,7 +25328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>219</v>
       </c>
@@ -25335,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>220</v>
       </c>
@@ -25391,7 +25440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>221</v>
       </c>
@@ -25447,7 +25496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>222</v>
       </c>
@@ -25503,7 +25552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>223</v>
       </c>
@@ -25559,7 +25608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>224</v>
       </c>
@@ -25615,7 +25664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>225</v>
       </c>
@@ -25671,7 +25720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>226</v>
       </c>
@@ -25727,7 +25776,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>227</v>
       </c>
@@ -25783,7 +25832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>228</v>
       </c>
@@ -25841,16 +25890,16 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="B209" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C209" t="b">
         <v>1</v>
       </c>
       <c r="D209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -25862,19 +25911,19 @@
         <v>0.5</v>
       </c>
       <c r="H209">
-        <v>1712101853.5999999</v>
+        <v>1712102552.5999999</v>
       </c>
       <c r="I209">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J209">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
       <c r="L209">
-        <v>11.4</v>
+        <v>13.6</v>
       </c>
       <c r="M209">
         <v>100</v>
@@ -25883,7 +25932,7 @@
         <v>0</v>
       </c>
       <c r="O209">
-        <v>1884</v>
+        <v>1945</v>
       </c>
       <c r="P209" t="b">
         <v>1</v>
@@ -25895,7 +25944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>230</v>
       </c>
@@ -25953,16 +26002,16 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="B211" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C211" t="b">
         <v>1</v>
       </c>
       <c r="D211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -25974,19 +26023,19 @@
         <v>0.5</v>
       </c>
       <c r="H211">
-        <v>1712101831</v>
+        <v>1712102542</v>
       </c>
       <c r="I211">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J211">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K211">
         <v>0</v>
       </c>
       <c r="L211">
-        <v>11.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M211">
         <v>100</v>
@@ -25995,7 +26044,7 @@
         <v>0</v>
       </c>
       <c r="O211">
-        <v>1902</v>
+        <v>1957</v>
       </c>
       <c r="P211" t="b">
         <v>1</v>
@@ -26007,7 +26056,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>232</v>
       </c>
@@ -26063,7 +26112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>233</v>
       </c>
@@ -26119,7 +26168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>234</v>
       </c>
@@ -26175,7 +26224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>235</v>
       </c>
@@ -26231,7 +26280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>236</v>
       </c>
@@ -26289,19 +26338,19 @@
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="B217" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C217" t="b">
         <v>1</v>
       </c>
       <c r="D217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F217" t="b">
         <v>0</v>
@@ -26310,19 +26359,19 @@
         <v>0.5</v>
       </c>
       <c r="H217">
-        <v>1712101755.9000001</v>
+        <v>1712102513</v>
       </c>
       <c r="I217">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J217">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K217">
         <v>0</v>
       </c>
       <c r="L217">
-        <v>17.3</v>
+        <v>10.5</v>
       </c>
       <c r="M217">
         <v>100</v>
@@ -26331,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="O217">
-        <v>1879</v>
+        <v>1939</v>
       </c>
       <c r="P217" t="b">
         <v>1</v>
@@ -26345,16 +26394,16 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="B218" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
       </c>
       <c r="D218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -26366,28 +26415,28 @@
         <v>0.5</v>
       </c>
       <c r="H218">
-        <v>1712101718.0999999</v>
+        <v>1712102505.7</v>
       </c>
       <c r="I218">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J218">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K218">
         <v>0</v>
       </c>
       <c r="L218">
-        <v>37</v>
+        <v>6.4</v>
       </c>
       <c r="M218">
         <v>100</v>
       </c>
       <c r="N218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O218">
-        <v>4129</v>
+        <v>1938</v>
       </c>
       <c r="P218" t="b">
         <v>1</v>
@@ -26395,11 +26444,11 @@
       <c r="Q218">
         <v>0</v>
       </c>
-      <c r="R218">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R218" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>239</v>
       </c>
@@ -26457,16 +26506,16 @@
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="B220" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C220" t="b">
         <v>1</v>
       </c>
       <c r="D220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220">
         <v>2</v>
@@ -26478,19 +26527,19 @@
         <v>0.5</v>
       </c>
       <c r="H220">
-        <v>1712101661.8</v>
+        <v>1712102495.5999999</v>
       </c>
       <c r="I220">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J220">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K220">
         <v>0</v>
       </c>
       <c r="L220">
-        <v>11.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M220">
         <v>100</v>
@@ -26499,7 +26548,7 @@
         <v>0</v>
       </c>
       <c r="O220">
-        <v>1882</v>
+        <v>1947</v>
       </c>
       <c r="P220" t="b">
         <v>1</v>
@@ -26511,7 +26560,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>241</v>
       </c>
@@ -26567,7 +26616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>242</v>
       </c>
@@ -26625,16 +26674,16 @@
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="B223" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C223" t="b">
         <v>1</v>
       </c>
       <c r="D223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223">
         <v>2</v>
@@ -26646,28 +26695,28 @@
         <v>0.5</v>
       </c>
       <c r="H223">
-        <v>1712101583.5</v>
+        <v>1712102470.4000001</v>
       </c>
       <c r="I223">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J223">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K223">
         <v>0</v>
       </c>
       <c r="L223">
-        <v>17.3</v>
+        <v>24.3</v>
       </c>
       <c r="M223">
         <v>100</v>
       </c>
       <c r="N223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O223">
-        <v>1863</v>
+        <v>4727</v>
       </c>
       <c r="P223" t="b">
         <v>1</v>
@@ -26675,22 +26724,22 @@
       <c r="Q223">
         <v>0</v>
       </c>
-      <c r="R223" t="s">
-        <v>75</v>
+      <c r="R223">
+        <v>-100</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="B224" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C224" t="b">
         <v>1</v>
       </c>
       <c r="D224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224">
         <v>2</v>
@@ -26702,19 +26751,19 @@
         <v>0.5</v>
       </c>
       <c r="H224">
-        <v>1712101569.0999999</v>
+        <v>1712102457.5999999</v>
       </c>
       <c r="I224">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J224">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K224">
         <v>0</v>
       </c>
       <c r="L224">
-        <v>13.7</v>
+        <v>12</v>
       </c>
       <c r="M224">
         <v>100</v>
@@ -26723,7 +26772,7 @@
         <v>0</v>
       </c>
       <c r="O224">
-        <v>1858</v>
+        <v>1936</v>
       </c>
       <c r="P224" t="b">
         <v>1</v>
@@ -26737,16 +26786,16 @@
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="B225" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C225" t="b">
         <v>1</v>
       </c>
       <c r="D225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -26758,28 +26807,28 @@
         <v>0.5</v>
       </c>
       <c r="H225">
-        <v>1712101548.8</v>
+        <v>1712102446.0999999</v>
       </c>
       <c r="I225">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J225">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K225">
         <v>0</v>
       </c>
       <c r="L225">
-        <v>19.600000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="M225">
         <v>100</v>
       </c>
       <c r="N225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O225">
-        <v>4041</v>
+        <v>1938</v>
       </c>
       <c r="P225" t="b">
         <v>1</v>
@@ -26787,22 +26836,22 @@
       <c r="Q225">
         <v>0</v>
       </c>
-      <c r="R225">
-        <v>-100</v>
+      <c r="R225" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="B226" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C226" t="b">
         <v>1</v>
       </c>
       <c r="D226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226">
         <v>2</v>
@@ -26814,28 +26863,28 @@
         <v>0.5</v>
       </c>
       <c r="H226">
-        <v>1712101519.3</v>
+        <v>1712102434</v>
       </c>
       <c r="I226">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J226">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K226">
         <v>0</v>
       </c>
       <c r="L226">
-        <v>28.8</v>
+        <v>11.4</v>
       </c>
       <c r="M226">
         <v>100</v>
       </c>
       <c r="N226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O226">
-        <v>3996</v>
+        <v>1941</v>
       </c>
       <c r="P226" t="b">
         <v>1</v>
@@ -26843,11 +26892,11 @@
       <c r="Q226">
         <v>0</v>
       </c>
-      <c r="R226">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R226" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>247</v>
       </c>
@@ -26903,7 +26952,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>248</v>
       </c>
@@ -26959,7 +27008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>249</v>
       </c>
@@ -27015,7 +27064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -27071,7 +27120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>251</v>
       </c>
@@ -27127,7 +27176,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>252</v>
       </c>
@@ -27183,7 +27232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>253</v>
       </c>
@@ -27239,7 +27288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>254</v>
       </c>
@@ -27295,7 +27344,7 @@
         <v>147.4</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>255</v>
       </c>
@@ -27351,7 +27400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>256</v>
       </c>
@@ -27409,10 +27458,10 @@
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
       <c r="B237" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C237" t="b">
         <v>1</v>
@@ -27421,7 +27470,7 @@
         <v>1</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
@@ -27430,19 +27479,19 @@
         <v>0.5</v>
       </c>
       <c r="H237">
-        <v>1712101120.5</v>
+        <v>1712102425.4000001</v>
       </c>
       <c r="I237">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J237">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K237">
         <v>0</v>
       </c>
       <c r="L237">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="M237">
         <v>100</v>
@@ -27451,7 +27500,7 @@
         <v>0</v>
       </c>
       <c r="O237">
-        <v>1982</v>
+        <v>1945</v>
       </c>
       <c r="P237" t="b">
         <v>1</v>
@@ -27463,7 +27512,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>258</v>
       </c>
@@ -27519,7 +27568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>259</v>
       </c>
@@ -27577,10 +27626,10 @@
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>260</v>
+        <v>490</v>
       </c>
       <c r="B240" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C240" t="b">
         <v>1</v>
@@ -27598,19 +27647,19 @@
         <v>0.5</v>
       </c>
       <c r="H240">
-        <v>1712101090.3</v>
+        <v>1712096694.9000001</v>
       </c>
       <c r="I240">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J240">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K240">
         <v>0</v>
       </c>
       <c r="L240">
-        <v>6.1</v>
+        <v>19.2</v>
       </c>
       <c r="M240">
         <v>100</v>
@@ -27619,7 +27668,7 @@
         <v>0</v>
       </c>
       <c r="O240">
-        <v>1962</v>
+        <v>1940</v>
       </c>
       <c r="P240" t="b">
         <v>1</v>
@@ -27633,10 +27682,10 @@
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="B241" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="C241" t="b">
         <v>1</v>
@@ -27654,19 +27703,19 @@
         <v>0.5</v>
       </c>
       <c r="H241">
-        <v>1712101082.7</v>
+        <v>1712104008.4000001</v>
       </c>
       <c r="I241">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J241">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K241">
         <v>0</v>
       </c>
       <c r="L241">
-        <v>6.9</v>
+        <v>12.5</v>
       </c>
       <c r="M241">
         <v>100</v>
@@ -27675,7 +27724,7 @@
         <v>0</v>
       </c>
       <c r="O241">
-        <v>1977</v>
+        <v>2012</v>
       </c>
       <c r="P241" t="b">
         <v>1</v>
@@ -27689,10 +27738,10 @@
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="B242" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="C242" t="b">
         <v>1</v>
@@ -27710,19 +27759,19 @@
         <v>0.5</v>
       </c>
       <c r="H242">
-        <v>1712101074.4000001</v>
+        <v>1712103993</v>
       </c>
       <c r="I242">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J242">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K242">
         <v>0</v>
       </c>
       <c r="L242">
-        <v>7.5</v>
+        <v>14.6</v>
       </c>
       <c r="M242">
         <v>100</v>
@@ -27731,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="O242">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="P242" t="b">
         <v>1</v>
@@ -27745,10 +27794,10 @@
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="B243" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="C243" t="b">
         <v>1</v>
@@ -27766,19 +27815,19 @@
         <v>0.5</v>
       </c>
       <c r="H243">
-        <v>1712101055.8</v>
+        <v>1712103967.2</v>
       </c>
       <c r="I243">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J243">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
       <c r="L243">
-        <v>17.8</v>
+        <v>10.3</v>
       </c>
       <c r="M243">
         <v>100</v>
@@ -27787,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="O243">
-        <v>2033</v>
+        <v>1986</v>
       </c>
       <c r="P243" t="b">
         <v>1</v>
@@ -27799,7 +27848,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>264</v>
       </c>
@@ -27855,7 +27904,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>265</v>
       </c>
@@ -27911,7 +27960,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>266</v>
       </c>
@@ -27967,7 +28016,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>267</v>
       </c>
@@ -28025,10 +28074,10 @@
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="B248" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="C248" t="b">
         <v>1</v>
@@ -28037,7 +28086,7 @@
         <v>1</v>
       </c>
       <c r="E248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F248" t="b">
         <v>0</v>
@@ -28046,19 +28095,19 @@
         <v>0.5</v>
       </c>
       <c r="H248">
-        <v>1712100947.8</v>
+        <v>1712103934</v>
       </c>
       <c r="I248">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J248">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K248">
         <v>0</v>
       </c>
       <c r="L248">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
       <c r="M248">
         <v>100</v>
@@ -28067,7 +28116,7 @@
         <v>0</v>
       </c>
       <c r="O248">
-        <v>1962</v>
+        <v>1969</v>
       </c>
       <c r="P248" t="b">
         <v>1</v>
@@ -28079,7 +28128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>269</v>
       </c>
@@ -28135,7 +28184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>270</v>
       </c>
@@ -28193,10 +28242,10 @@
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c r="B251" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="C251" t="b">
         <v>1</v>
@@ -28214,28 +28263,28 @@
         <v>0.5</v>
       </c>
       <c r="H251">
-        <v>1712100898.5</v>
+        <v>1712103907.3</v>
       </c>
       <c r="I251">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J251">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K251">
         <v>0</v>
       </c>
       <c r="L251">
-        <v>10.4</v>
+        <v>16.3</v>
       </c>
       <c r="M251">
         <v>100</v>
       </c>
       <c r="N251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O251">
-        <v>1985</v>
+        <v>4290</v>
       </c>
       <c r="P251" t="b">
         <v>1</v>
@@ -28243,16 +28292,16 @@
       <c r="Q251">
         <v>0</v>
       </c>
-      <c r="R251" t="s">
-        <v>75</v>
+      <c r="R251">
+        <v>-100</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>272</v>
+        <v>85</v>
       </c>
       <c r="B252" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="C252" t="b">
         <v>1</v>
@@ -28270,28 +28319,28 @@
         <v>0.5</v>
       </c>
       <c r="H252">
-        <v>1712100887.5999999</v>
+        <v>1712103875.5</v>
       </c>
       <c r="I252">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J252">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K252">
         <v>0</v>
       </c>
       <c r="L252">
-        <v>10.1</v>
+        <v>14.9</v>
       </c>
       <c r="M252">
         <v>100</v>
       </c>
       <c r="N252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O252">
-        <v>2000</v>
+        <v>4347</v>
       </c>
       <c r="P252" t="b">
         <v>1</v>
@@ -28299,11 +28348,11 @@
       <c r="Q252">
         <v>0</v>
       </c>
-      <c r="R252" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R252">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>273</v>
       </c>
@@ -28359,7 +28408,7 @@
         <v>-33.299999999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>274</v>
       </c>
@@ -28415,7 +28464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>275</v>
       </c>
@@ -28471,7 +28520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>276</v>
       </c>
@@ -28527,7 +28576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>277</v>
       </c>
@@ -28583,7 +28632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>278</v>
       </c>
@@ -28639,7 +28688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>279</v>
       </c>
@@ -28695,7 +28744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>280</v>
       </c>
@@ -28751,7 +28800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>281</v>
       </c>
@@ -28807,7 +28856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>282</v>
       </c>
@@ -28863,7 +28912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>283</v>
       </c>
@@ -28919,7 +28968,7 @@
         <v>176.9</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>284</v>
       </c>
@@ -28975,7 +29024,7 @@
         <v>-57.1</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>285</v>
       </c>
@@ -29031,7 +29080,7 @@
         <v>-37.5</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>286</v>
       </c>
@@ -29087,7 +29136,7 @@
         <v>-69.2</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>287</v>
       </c>
@@ -29143,7 +29192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>288</v>
       </c>
@@ -29199,7 +29248,7 @@
         <v>-23.1</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>289</v>
       </c>
@@ -29255,7 +29304,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>290</v>
       </c>
@@ -29311,7 +29360,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>291</v>
       </c>
@@ -29367,7 +29416,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>292</v>
       </c>
@@ -29423,7 +29472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>294</v>
       </c>
@@ -29479,7 +29528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>295</v>
       </c>
@@ -29535,7 +29584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>296</v>
       </c>
@@ -29591,7 +29640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>297</v>
       </c>
@@ -29647,7 +29696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>298</v>
       </c>
@@ -29703,7 +29752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>299</v>
       </c>
@@ -29759,7 +29808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>300</v>
       </c>
@@ -29815,7 +29864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>301</v>
       </c>
@@ -29871,7 +29920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>302</v>
       </c>
@@ -29927,7 +29976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>303</v>
       </c>
@@ -29983,7 +30032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>304</v>
       </c>
@@ -30039,7 +30088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>305</v>
       </c>
@@ -30095,7 +30144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>306</v>
       </c>
@@ -30151,7 +30200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>307</v>
       </c>
@@ -30207,7 +30256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>308</v>
       </c>
@@ -30263,7 +30312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>309</v>
       </c>
@@ -30319,7 +30368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>310</v>
       </c>
@@ -30375,7 +30424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>311</v>
       </c>
@@ -30431,7 +30480,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>312</v>
       </c>
@@ -30487,7 +30536,7 @@
         <v>-16.7</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>313</v>
       </c>
@@ -30543,7 +30592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>314</v>
       </c>
@@ -30599,7 +30648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>315</v>
       </c>
@@ -30655,7 +30704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>316</v>
       </c>
@@ -30711,7 +30760,7 @@
         <v>-133.30000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>317</v>
       </c>
@@ -30767,7 +30816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>318</v>
       </c>
@@ -30823,7 +30872,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>319</v>
       </c>
@@ -30879,7 +30928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>320</v>
       </c>
@@ -30935,7 +30984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>321</v>
       </c>
@@ -30991,7 +31040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>322</v>
       </c>
@@ -31047,7 +31096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>323</v>
       </c>
@@ -31103,7 +31152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>324</v>
       </c>
@@ -31159,7 +31208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>325</v>
       </c>
@@ -31215,7 +31264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>326</v>
       </c>
@@ -31271,7 +31320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>327</v>
       </c>
@@ -31327,7 +31376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>328</v>
       </c>
@@ -31383,7 +31432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>329</v>
       </c>
@@ -31439,7 +31488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>330</v>
       </c>
@@ -31495,7 +31544,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>331</v>
       </c>
@@ -31551,7 +31600,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>332</v>
       </c>
@@ -31607,7 +31656,7 @@
         <v>-83.3</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>333</v>
       </c>
@@ -31663,7 +31712,7 @@
         <v>-114.3</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>334</v>
       </c>
@@ -31719,7 +31768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>335</v>
       </c>
@@ -31775,7 +31824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>336</v>
       </c>
@@ -31831,7 +31880,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>337</v>
       </c>
@@ -31887,7 +31936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>338</v>
       </c>
@@ -31943,7 +31992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>339</v>
       </c>
@@ -31999,7 +32048,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>340</v>
       </c>
@@ -32055,7 +32104,7 @@
         <v>281.8</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>341</v>
       </c>
@@ -32111,7 +32160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>342</v>
       </c>
@@ -32167,7 +32216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>343</v>
       </c>
@@ -32223,7 +32272,7 @@
         <v>-94.7</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>344</v>
       </c>
@@ -32279,7 +32328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>345</v>
       </c>
@@ -32335,7 +32384,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>346</v>
       </c>
@@ -32391,7 +32440,7 @@
         <v>-22.2</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>347</v>
       </c>
@@ -32447,7 +32496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>348</v>
       </c>
@@ -32503,7 +32552,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>349</v>
       </c>
@@ -32559,7 +32608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>350</v>
       </c>
@@ -32615,7 +32664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>351</v>
       </c>
@@ -32671,7 +32720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>352</v>
       </c>
@@ -32727,7 +32776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>353</v>
       </c>
@@ -32783,7 +32832,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>354</v>
       </c>
@@ -32839,7 +32888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>355</v>
       </c>
@@ -32895,7 +32944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>356</v>
       </c>
@@ -32951,7 +33000,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>357</v>
       </c>
@@ -33007,7 +33056,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>358</v>
       </c>
@@ -33063,7 +33112,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>359</v>
       </c>
@@ -33119,7 +33168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>360</v>
       </c>
@@ -33175,7 +33224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>361</v>
       </c>
@@ -33231,7 +33280,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>362</v>
       </c>
@@ -33287,7 +33336,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>363</v>
       </c>
@@ -33343,7 +33392,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>364</v>
       </c>
@@ -33399,7 +33448,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>365</v>
       </c>
@@ -33455,7 +33504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>366</v>
       </c>
@@ -33511,7 +33560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>367</v>
       </c>
@@ -33567,7 +33616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>368</v>
       </c>
@@ -33623,7 +33672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>369</v>
       </c>
@@ -33679,7 +33728,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>370</v>
       </c>
@@ -33735,7 +33784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>371</v>
       </c>
@@ -33791,7 +33840,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>372</v>
       </c>
@@ -33847,7 +33896,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>373</v>
       </c>
@@ -33903,7 +33952,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>374</v>
       </c>
@@ -33959,7 +34008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>375</v>
       </c>
@@ -34015,7 +34064,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>376</v>
       </c>
@@ -34071,7 +34120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>377</v>
       </c>
@@ -34127,7 +34176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>378</v>
       </c>
@@ -34183,7 +34232,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>379</v>
       </c>
@@ -34239,7 +34288,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>380</v>
       </c>
@@ -34295,7 +34344,7 @@
         <v>-66.7</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>381</v>
       </c>
@@ -34351,7 +34400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>382</v>
       </c>
@@ -34407,7 +34456,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>383</v>
       </c>
@@ -34463,7 +34512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>385</v>
       </c>
@@ -34519,7 +34568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>386</v>
       </c>
@@ -34575,7 +34624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>387</v>
       </c>
@@ -34631,7 +34680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>388</v>
       </c>
@@ -34687,7 +34736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>389</v>
       </c>
@@ -34743,7 +34792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>390</v>
       </c>
@@ -34799,7 +34848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>391</v>
       </c>
@@ -34855,7 +34904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>392</v>
       </c>
@@ -34911,7 +34960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>393</v>
       </c>
@@ -34967,7 +35016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>394</v>
       </c>
@@ -35023,7 +35072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>395</v>
       </c>
@@ -35079,7 +35128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>396</v>
       </c>
@@ -35135,7 +35184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>397</v>
       </c>
@@ -35191,7 +35240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>398</v>
       </c>
@@ -35247,7 +35296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>399</v>
       </c>
@@ -35303,7 +35352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>400</v>
       </c>
@@ -35359,7 +35408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>401</v>
       </c>
@@ -35415,7 +35464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>402</v>
       </c>
@@ -35471,7 +35520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>403</v>
       </c>
@@ -35527,7 +35576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>404</v>
       </c>
@@ -35583,7 +35632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>405</v>
       </c>
@@ -35639,7 +35688,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>406</v>
       </c>
@@ -35695,7 +35744,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>407</v>
       </c>
@@ -35751,7 +35800,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>408</v>
       </c>
@@ -35807,7 +35856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>409</v>
       </c>
@@ -35863,7 +35912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>410</v>
       </c>
@@ -35919,7 +35968,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>411</v>
       </c>
@@ -35975,7 +36024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>412</v>
       </c>
@@ -36031,7 +36080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>413</v>
       </c>
@@ -36087,7 +36136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>414</v>
       </c>
@@ -36143,7 +36192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>415</v>
       </c>
@@ -36199,7 +36248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>416</v>
       </c>
@@ -36255,7 +36304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>417</v>
       </c>
@@ -36311,7 +36360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>418</v>
       </c>
@@ -36367,7 +36416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>419</v>
       </c>
@@ -36423,7 +36472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>420</v>
       </c>
@@ -36479,7 +36528,7 @@
         <v>-58.3</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>421</v>
       </c>
@@ -36535,7 +36584,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>422</v>
       </c>
@@ -36591,7 +36640,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>423</v>
       </c>
@@ -36647,7 +36696,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>424</v>
       </c>
@@ -36703,7 +36752,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>425</v>
       </c>
@@ -36759,7 +36808,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>426</v>
       </c>
@@ -36815,7 +36864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>427</v>
       </c>
@@ -36871,7 +36920,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>428</v>
       </c>
@@ -36927,7 +36976,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>429</v>
       </c>
@@ -36983,7 +37032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>430</v>
       </c>
@@ -37039,7 +37088,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>431</v>
       </c>
@@ -37095,7 +37144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>432</v>
       </c>
@@ -37151,7 +37200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>433</v>
       </c>
@@ -37207,7 +37256,7 @@
         <v>-83.3</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>434</v>
       </c>
@@ -37263,7 +37312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>435</v>
       </c>
@@ -37319,7 +37368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>436</v>
       </c>
@@ -37375,7 +37424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>437</v>
       </c>
@@ -37431,7 +37480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>438</v>
       </c>
@@ -37487,7 +37536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>439</v>
       </c>
@@ -37543,7 +37592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>440</v>
       </c>
@@ -37599,7 +37648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>441</v>
       </c>
@@ -37655,7 +37704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>442</v>
       </c>
@@ -37711,7 +37760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>443</v>
       </c>
@@ -37767,7 +37816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>444</v>
       </c>
@@ -37823,7 +37872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>445</v>
       </c>
@@ -37879,7 +37928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>446</v>
       </c>
@@ -37937,10 +37986,10 @@
     </row>
     <row r="425" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>447</v>
+        <v>86</v>
       </c>
       <c r="B425" t="s">
-        <v>384</v>
+        <v>19</v>
       </c>
       <c r="C425" t="b">
         <v>1</v>
@@ -37958,7 +38007,7 @@
         <v>0.5</v>
       </c>
       <c r="H425">
-        <v>1712098239.9000001</v>
+        <v>1712103863.5999999</v>
       </c>
       <c r="I425">
         <v>12</v>
@@ -37970,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="L425">
-        <v>15.6</v>
+        <v>11.2</v>
       </c>
       <c r="M425">
         <v>100</v>
       </c>
       <c r="N425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O425">
-        <v>3827</v>
+        <v>1990</v>
       </c>
       <c r="P425" t="b">
         <v>1</v>
@@ -37987,11 +38036,11 @@
       <c r="Q425">
         <v>0</v>
       </c>
-      <c r="R425">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R425" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>448</v>
       </c>
@@ -38049,10 +38098,10 @@
     </row>
     <row r="427" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>449</v>
+        <v>87</v>
       </c>
       <c r="B427" t="s">
-        <v>384</v>
+        <v>19</v>
       </c>
       <c r="C427" t="b">
         <v>1</v>
@@ -38070,7 +38119,7 @@
         <v>0.5</v>
       </c>
       <c r="H427">
-        <v>1712098214.3</v>
+        <v>1712103849.7</v>
       </c>
       <c r="I427">
         <v>12</v>
@@ -38082,16 +38131,16 @@
         <v>0</v>
       </c>
       <c r="L427">
-        <v>9.1</v>
+        <v>13.1</v>
       </c>
       <c r="M427">
         <v>100</v>
       </c>
       <c r="N427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O427">
-        <v>1869</v>
+        <v>4298</v>
       </c>
       <c r="P427" t="b">
         <v>1</v>
@@ -38099,11 +38148,11 @@
       <c r="Q427">
         <v>0</v>
       </c>
-      <c r="R427" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R427">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>450</v>
       </c>
@@ -38161,10 +38210,10 @@
     </row>
     <row r="429" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="B429" t="s">
-        <v>384</v>
+        <v>19</v>
       </c>
       <c r="C429" t="b">
         <v>1</v>
@@ -38182,7 +38231,7 @@
         <v>0.5</v>
       </c>
       <c r="H429">
-        <v>1712098193.4000001</v>
+        <v>1712096856.8</v>
       </c>
       <c r="I429">
         <v>12</v>
@@ -38194,16 +38243,16 @@
         <v>0</v>
       </c>
       <c r="L429">
-        <v>8.4</v>
+        <v>19.3</v>
       </c>
       <c r="M429">
         <v>100</v>
       </c>
       <c r="N429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O429">
-        <v>1867</v>
+        <v>4470</v>
       </c>
       <c r="P429" t="b">
         <v>1</v>
@@ -38211,11 +38260,11 @@
       <c r="Q429">
         <v>0</v>
       </c>
-      <c r="R429" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R429">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>452</v>
       </c>
@@ -38273,7 +38322,7 @@
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B431" t="s">
         <v>384</v>
@@ -38294,7 +38343,7 @@
         <v>0.5</v>
       </c>
       <c r="H431">
-        <v>1712098172.5999999</v>
+        <v>1712098239.9000001</v>
       </c>
       <c r="I431">
         <v>12</v>
@@ -38306,16 +38355,16 @@
         <v>0</v>
       </c>
       <c r="L431">
-        <v>9.4</v>
+        <v>15.6</v>
       </c>
       <c r="M431">
         <v>100</v>
       </c>
       <c r="N431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O431">
-        <v>1867</v>
+        <v>3827</v>
       </c>
       <c r="P431" t="b">
         <v>1</v>
@@ -38323,11 +38372,11 @@
       <c r="Q431">
         <v>0</v>
       </c>
-      <c r="R431" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R431">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>454</v>
       </c>
@@ -38383,7 +38432,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>455</v>
       </c>
@@ -38439,7 +38488,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>456</v>
       </c>
@@ -38495,7 +38544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>457</v>
       </c>
@@ -38551,7 +38600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>458</v>
       </c>
@@ -38607,7 +38656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>459</v>
       </c>
@@ -38663,7 +38712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>460</v>
       </c>
@@ -38719,7 +38768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>461</v>
       </c>
@@ -38775,7 +38824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>462</v>
       </c>
@@ -38831,7 +38880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>463</v>
       </c>
@@ -38887,7 +38936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>464</v>
       </c>
@@ -38943,7 +38992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>465</v>
       </c>
@@ -38999,7 +39048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>466</v>
       </c>
@@ -39055,7 +39104,7 @@
         <v>-66.7</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>467</v>
       </c>
@@ -39111,7 +39160,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>468</v>
       </c>
@@ -39167,7 +39216,7 @@
         <v>-66.7</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>469</v>
       </c>
@@ -39223,7 +39272,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>470</v>
       </c>
@@ -39279,7 +39328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>471</v>
       </c>
@@ -39337,28 +39386,28 @@
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="B450" t="s">
         <v>384</v>
       </c>
       <c r="C450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E450">
         <v>2</v>
       </c>
       <c r="F450" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G450">
         <v>0.5</v>
       </c>
       <c r="H450">
-        <v>1712097860.4000001</v>
+        <v>1712098214.3</v>
       </c>
       <c r="I450">
         <v>12</v>
@@ -39370,16 +39419,16 @@
         <v>0</v>
       </c>
       <c r="L450">
-        <v>18.600000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="M450">
         <v>100</v>
       </c>
       <c r="N450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O450">
-        <v>4140</v>
+        <v>1869</v>
       </c>
       <c r="P450" t="b">
         <v>1</v>
@@ -39387,11 +39436,11 @@
       <c r="Q450">
         <v>0</v>
       </c>
-      <c r="R450">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R450" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="451" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>473</v>
       </c>
@@ -39447,7 +39496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>474</v>
       </c>
@@ -39503,7 +39552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -39559,7 +39608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -39615,7 +39664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -39671,7 +39720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -39727,7 +39776,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -39783,7 +39832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -39841,10 +39890,10 @@
     </row>
     <row r="459" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="B459" t="s">
-        <v>19</v>
+        <v>384</v>
       </c>
       <c r="C459" t="b">
         <v>1</v>
@@ -39862,7 +39911,7 @@
         <v>0.5</v>
       </c>
       <c r="H459">
-        <v>1712096856.8</v>
+        <v>1712098193.4000001</v>
       </c>
       <c r="I459">
         <v>12</v>
@@ -39874,16 +39923,16 @@
         <v>0</v>
       </c>
       <c r="L459">
-        <v>19.3</v>
+        <v>8.4</v>
       </c>
       <c r="M459">
         <v>100</v>
       </c>
       <c r="N459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O459">
-        <v>4470</v>
+        <v>1867</v>
       </c>
       <c r="P459" t="b">
         <v>1</v>
@@ -39891,11 +39940,11 @@
       <c r="Q459">
         <v>0</v>
       </c>
-      <c r="R459">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R459" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="460" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -39951,7 +40000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -40007,7 +40056,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -40063,7 +40112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>485</v>
       </c>
@@ -40119,7 +40168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>486</v>
       </c>
@@ -40175,7 +40224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -40231,7 +40280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -40287,7 +40336,7 @@
         <v>-78.900000000000006</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -40345,10 +40394,10 @@
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="B468" t="s">
-        <v>111</v>
+        <v>384</v>
       </c>
       <c r="C468" t="b">
         <v>1</v>
@@ -40357,7 +40406,7 @@
         <v>1</v>
       </c>
       <c r="E468">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F468" t="b">
         <v>0</v>
@@ -40366,19 +40415,19 @@
         <v>0.5</v>
       </c>
       <c r="H468">
-        <v>1712096694.9000001</v>
+        <v>1712098172.5999999</v>
       </c>
       <c r="I468">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J468">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K468">
         <v>0</v>
       </c>
       <c r="L468">
-        <v>19.2</v>
+        <v>9.4</v>
       </c>
       <c r="M468">
         <v>100</v>
@@ -40387,7 +40436,7 @@
         <v>0</v>
       </c>
       <c r="O468">
-        <v>1940</v>
+        <v>1867</v>
       </c>
       <c r="P468" t="b">
         <v>1</v>
@@ -40399,7 +40448,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -40455,7 +40504,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -40511,7 +40560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -40567,7 +40616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -40623,7 +40672,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -40679,7 +40728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -40735,7 +40784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -40791,7 +40840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -40847,7 +40896,7 @@
         <v>-66.7</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -40903,7 +40952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -40961,49 +41010,49 @@
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="B479" t="s">
-        <v>202</v>
+        <v>384</v>
       </c>
       <c r="C479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E479">
         <v>2</v>
       </c>
       <c r="F479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G479">
         <v>0.5</v>
       </c>
       <c r="H479">
-        <v>1712096413.2</v>
+        <v>1712097860.4000001</v>
       </c>
       <c r="I479">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J479">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K479">
         <v>0</v>
       </c>
       <c r="L479">
-        <v>13.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="M479">
         <v>100</v>
       </c>
       <c r="N479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O479">
-        <v>1983</v>
+        <v>4140</v>
       </c>
       <c r="P479" t="b">
         <v>1</v>
@@ -41011,11 +41060,11 @@
       <c r="Q479">
         <v>0</v>
       </c>
-      <c r="R479" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R479">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="480" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -41071,7 +41120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>503</v>
       </c>
@@ -41127,7 +41176,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>504</v>
       </c>
@@ -41183,7 +41232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -41239,7 +41288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -41295,7 +41344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -41351,7 +41400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -41407,7 +41456,7 @@
         <v>-85.7</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -41463,7 +41512,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -41519,7 +41568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -41575,7 +41624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -41631,7 +41680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -41687,7 +41736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -41743,7 +41792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>515</v>
       </c>
@@ -41799,7 +41848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>516</v>
       </c>
@@ -41855,7 +41904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>517</v>
       </c>
@@ -41911,7 +41960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>518</v>
       </c>
@@ -41967,7 +42016,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -42023,7 +42072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -42079,7 +42128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -42135,7 +42184,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -42248,6 +42297,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R501" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="100"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:R501">
+      <sortCondition ref="B1:B501"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>